--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7ECDF-CF99-42E7-9563-AD7FC268FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38890074-7FD7-40B0-916C-F94990D8830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{EE71D8C8-3E37-4720-B29B-E3CE276BD2D4}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{10D6AB41-FA03-4A33-BB31-B5BB858B10BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B12D5E-4E4A-4BF1-A91F-73D94B0F544D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3DAA55-6D41-4462-9C71-2E6A7C271018}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38890074-7FD7-40B0-916C-F94990D8830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28B2F5-4970-4859-9733-A2B373DA85B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{10D6AB41-FA03-4A33-BB31-B5BB858B10BB}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FF45548F-7122-4A98-A2D4-CE8A61689A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3DAA55-6D41-4462-9C71-2E6A7C271018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6609A9A7-F7B8-4F86-A10B-F839F48A695A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
